--- a/Stock Analysis/BLK/BLK.xlsx
+++ b/Stock Analysis/BLK/BLK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Stock-Analysis/Stock Analysis/BLK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A95CA1-C236-48B1-B4EB-605AE41DAD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{92A95CA1-C236-48B1-B4EB-605AE41DAD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFA63669-996C-4DF0-8A7F-07B08F587357}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="1" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
   </bookViews>
@@ -327,7 +327,7 @@
     <t>2021-12</t>
   </si>
   <si>
-    <t>[Analysis -2022] [Div = 19.52][Price Pivot 2.75% - 3.0%][Growth 10 - 15%]</t>
+    <t>[Analysis -2022] [Div = 19.52][Pivot 2.75% - 3.0%][Growth 10 - 15%]</t>
   </si>
 </sst>
 </file>
@@ -476,6 +476,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -491,7 +492,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -4538,7 +4538,7 @@
   <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D26"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6821,26 +6821,26 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="32"/>
+      <c r="G2" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="K2" s="33" t="s">
+      <c r="H2" s="33"/>
+      <c r="K2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="34"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="18" t="s">
@@ -7612,14 +7612,14 @@
   <dimension ref="B2:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="14" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
@@ -7635,20 +7635,20 @@
       <c r="E2" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -7971,18 +7971,18 @@
         <f>Table7[[#This Row],[Coupon]]/Table7[[#This Row],[PriceMedian]]</f>
         <v>2.9608096468561586E-2</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12">
